--- a/data/outputs/management_altmetric/60.xlsx
+++ b/data/outputs/management_altmetric/60.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE61"/>
+  <dimension ref="A1:CF61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,6 +782,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1029,6 +1034,9 @@
       <c r="CE2" t="n">
         <v>0</v>
       </c>
+      <c r="CF2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1276,6 +1284,9 @@
       <c r="CE3" t="n">
         <v>0</v>
       </c>
+      <c r="CF3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1515,6 +1526,9 @@
       <c r="CE4" t="n">
         <v>0</v>
       </c>
+      <c r="CF4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1762,6 +1776,9 @@
       <c r="CE5" t="n">
         <v>0</v>
       </c>
+      <c r="CF5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2017,6 +2034,9 @@
       <c r="CE6" t="n">
         <v>0</v>
       </c>
+      <c r="CF6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2258,6 +2278,9 @@
       <c r="CE7" t="n">
         <v>0</v>
       </c>
+      <c r="CF7" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2509,6 +2532,9 @@
       <c r="CE8" t="n">
         <v>0</v>
       </c>
+      <c r="CF8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2748,6 +2774,9 @@
       <c r="CE9" t="n">
         <v>0</v>
       </c>
+      <c r="CF9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2999,6 +3028,9 @@
         <v>0</v>
       </c>
       <c r="CE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3224,6 +3256,9 @@
       <c r="CE11" t="n">
         <v>0</v>
       </c>
+      <c r="CF11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3491,6 +3526,9 @@
       <c r="CE12" t="n">
         <v>0</v>
       </c>
+      <c r="CF12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3758,6 +3796,9 @@
       <c r="CE13" t="n">
         <v>0</v>
       </c>
+      <c r="CF13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4029,6 +4070,9 @@
       <c r="CE14" t="n">
         <v>0</v>
       </c>
+      <c r="CF14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4296,6 +4340,9 @@
       <c r="CE15" t="n">
         <v>0</v>
       </c>
+      <c r="CF15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4555,6 +4602,9 @@
       <c r="CE16" t="n">
         <v>0</v>
       </c>
+      <c r="CF16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4822,6 +4872,9 @@
       <c r="CE17" t="n">
         <v>0</v>
       </c>
+      <c r="CF17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5069,6 +5122,9 @@
       <c r="CE18" t="n">
         <v>0</v>
       </c>
+      <c r="CF18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5338,6 +5394,9 @@
       <c r="CE19" t="n">
         <v>0</v>
       </c>
+      <c r="CF19" t="n">
+        <v>5.08</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5595,6 +5654,9 @@
       <c r="CE20" t="n">
         <v>0</v>
       </c>
+      <c r="CF20" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5838,6 +5900,9 @@
       <c r="CE21" t="n">
         <v>0</v>
       </c>
+      <c r="CF21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -6085,6 +6150,9 @@
       <c r="CE22" t="n">
         <v>0</v>
       </c>
+      <c r="CF22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6324,6 +6392,9 @@
       <c r="CE23" t="n">
         <v>0</v>
       </c>
+      <c r="CF23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6579,6 +6650,9 @@
       <c r="CE24" t="n">
         <v>0</v>
       </c>
+      <c r="CF24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6820,6 +6894,9 @@
       <c r="CE25" t="n">
         <v>0</v>
       </c>
+      <c r="CF25" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -7071,6 +7148,9 @@
       <c r="CE26" t="n">
         <v>0</v>
       </c>
+      <c r="CF26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7328,6 +7408,9 @@
       <c r="CE27" t="n">
         <v>0</v>
       </c>
+      <c r="CF27" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7573,6 +7656,9 @@
       <c r="CE28" t="n">
         <v>0</v>
       </c>
+      <c r="CF28" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7812,6 +7898,9 @@
       <c r="CE29" t="n">
         <v>0</v>
       </c>
+      <c r="CF29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -8063,6 +8152,9 @@
       <c r="CE30" t="n">
         <v>0</v>
       </c>
+      <c r="CF30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -8306,6 +8398,9 @@
       <c r="CE31" t="n">
         <v>0</v>
       </c>
+      <c r="CF31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8553,6 +8648,9 @@
       <c r="CE32" t="n">
         <v>0</v>
       </c>
+      <c r="CF32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8792,6 +8890,9 @@
       <c r="CE33" t="n">
         <v>0</v>
       </c>
+      <c r="CF33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -9031,6 +9132,9 @@
       <c r="CE34" t="n">
         <v>0</v>
       </c>
+      <c r="CF34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -9278,6 +9382,9 @@
       <c r="CE35" t="n">
         <v>0</v>
       </c>
+      <c r="CF35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9525,6 +9632,9 @@
       <c r="CE36" t="n">
         <v>0</v>
       </c>
+      <c r="CF36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -9768,6 +9878,9 @@
       <c r="CE37" t="n">
         <v>0</v>
       </c>
+      <c r="CF37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -10019,6 +10132,9 @@
       <c r="CE38" t="n">
         <v>0</v>
       </c>
+      <c r="CF38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -10274,6 +10390,9 @@
       <c r="CE39" t="n">
         <v>0</v>
       </c>
+      <c r="CF39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10521,6 +10640,9 @@
       <c r="CE40" t="n">
         <v>0</v>
       </c>
+      <c r="CF40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -10768,6 +10890,9 @@
       <c r="CE41" t="n">
         <v>0</v>
       </c>
+      <c r="CF41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -11007,6 +11132,9 @@
       <c r="CE42" t="n">
         <v>0</v>
       </c>
+      <c r="CF42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -11250,6 +11378,9 @@
       <c r="CE43" t="n">
         <v>0</v>
       </c>
+      <c r="CF43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -11497,6 +11628,9 @@
       <c r="CE44" t="n">
         <v>0</v>
       </c>
+      <c r="CF44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -11752,6 +11886,9 @@
       <c r="CE45" t="n">
         <v>0</v>
       </c>
+      <c r="CF45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -11991,6 +12128,9 @@
       <c r="CE46" t="n">
         <v>0</v>
       </c>
+      <c r="CF46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -12242,6 +12382,9 @@
       <c r="CE47" t="n">
         <v>0</v>
       </c>
+      <c r="CF47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -12489,6 +12632,9 @@
       <c r="CE48" t="n">
         <v>0</v>
       </c>
+      <c r="CF48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -12744,6 +12890,9 @@
       <c r="CE49" t="n">
         <v>0</v>
       </c>
+      <c r="CF49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -12999,6 +13148,9 @@
       <c r="CE50" t="n">
         <v>0</v>
       </c>
+      <c r="CF50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -13246,6 +13398,9 @@
       <c r="CE51" t="n">
         <v>0</v>
       </c>
+      <c r="CF51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -13485,6 +13640,9 @@
       <c r="CE52" t="n">
         <v>0</v>
       </c>
+      <c r="CF52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -13724,6 +13882,9 @@
       <c r="CE53" t="n">
         <v>0</v>
       </c>
+      <c r="CF53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -13975,6 +14136,9 @@
       <c r="CE54" t="n">
         <v>0</v>
       </c>
+      <c r="CF54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -14224,6 +14388,9 @@
       <c r="CE55" t="n">
         <v>0</v>
       </c>
+      <c r="CF55" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -14473,6 +14640,9 @@
       <c r="CE56" t="n">
         <v>0</v>
       </c>
+      <c r="CF56" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -14716,6 +14886,9 @@
       <c r="CE57" t="n">
         <v>0</v>
       </c>
+      <c r="CF57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -14955,6 +15128,9 @@
       <c r="CE58" t="n">
         <v>0</v>
       </c>
+      <c r="CF58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -15186,6 +15362,9 @@
       <c r="CE59" t="n">
         <v>0</v>
       </c>
+      <c r="CF59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -15433,6 +15612,9 @@
       <c r="CE60" t="n">
         <v>0</v>
       </c>
+      <c r="CF60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -15672,6 +15854,9 @@
       <c r="CE61" t="n">
         <v>0</v>
       </c>
+      <c r="CF61" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
